--- a/user_doc.xlsx
+++ b/user_doc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timur\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timur\Documents\GitHub\timetablebot_li1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AE42B2-B6CC-41E5-9407-335A2CA7C20E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A8D72-3867-4852-8C2D-18AB18709071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="80">
   <si>
     <t>Асапов Н.М.</t>
   </si>
@@ -422,14 +422,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -716,7 +716,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="AU17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BS55" sqref="BS55"/>
+      <selection pane="bottomRight" activeCell="BQ55" sqref="BQ55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,153 +825,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="13" t="s">
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="13" t="s">
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="13" t="s">
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="13" t="s">
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="13" t="s">
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="13" t="s">
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="13" t="s">
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="13" t="s">
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="13" t="s">
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="13" t="s">
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="13" t="s">
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="13" t="s">
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="13" t="s">
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="13" t="s">
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12"/>
-      <c r="BK1" s="13" t="s">
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="BL1" s="12"/>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="13" t="s">
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="12"/>
-      <c r="BQ1" s="13" t="s">
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="BR1" s="12"/>
-      <c r="BS1" s="12"/>
-      <c r="BT1" s="13" t="s">
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="BU1" s="12"/>
-      <c r="BV1" s="12"/>
-      <c r="BW1" s="12"/>
-      <c r="BX1" s="12"/>
-      <c r="BY1" s="12"/>
-      <c r="BZ1" s="12"/>
-      <c r="CA1" s="12"/>
-      <c r="CB1" s="12"/>
-      <c r="CC1" s="12"/>
-      <c r="CD1" s="12"/>
-      <c r="CE1" s="12"/>
-      <c r="CF1" s="12"/>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12"/>
-      <c r="CK1" s="12"/>
-      <c r="CL1" s="12"/>
-      <c r="CM1" s="12"/>
-      <c r="CN1" s="12"/>
-      <c r="CO1" s="12"/>
-      <c r="CP1" s="12"/>
-      <c r="CQ1" s="12"/>
-      <c r="CR1" s="12"/>
-      <c r="CS1" s="12"/>
-      <c r="CT1" s="12"/>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11"/>
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="11"/>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11"/>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11"/>
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="10">
@@ -1159,7 +1159,7 @@
       <c r="CT2" s="2"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="CT3" s="4"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="CT4" s="4"/>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="10">
         <v>4</v>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="CT5" s="4"/>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -1824,7 +1824,7 @@
       <c r="CT6" s="4"/>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="10">
         <v>6</v>
       </c>
@@ -1992,7 +1992,7 @@
       <c r="CT7" s="4"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="CT8" s="4"/>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="10">
         <v>8</v>
       </c>
@@ -2132,7 +2132,7 @@
       <c r="CT9" s="4"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="CT10" s="6"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="10">
@@ -2416,7 +2416,7 @@
       <c r="CT11" s="2"/>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="10">
         <v>2</v>
       </c>
@@ -2577,7 +2577,7 @@
       <c r="CT12" s="4"/>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="10">
         <v>3</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="CT13" s="4"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="10">
         <v>4</v>
       </c>
@@ -2906,7 +2906,7 @@
       <c r="CT14" s="4"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="10">
         <v>5</v>
       </c>
@@ -3060,7 +3060,7 @@
       <c r="CT15" s="4"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="10">
         <v>6</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="CT16" s="4"/>
     </row>
     <row r="17" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="10">
         <v>7</v>
       </c>
@@ -3347,7 +3347,7 @@
       <c r="CT17" s="4"/>
     </row>
     <row r="18" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="10">
         <v>8</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="CT18" s="4"/>
     </row>
     <row r="19" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="10">
         <v>9</v>
       </c>
@@ -3519,7 +3519,7 @@
       <c r="CT19" s="6"/>
     </row>
     <row r="20" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="10">
@@ -3701,7 +3701,7 @@
       <c r="CT20" s="2"/>
     </row>
     <row r="21" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="10">
         <v>2</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="CT21" s="4"/>
     </row>
     <row r="22" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="10">
         <v>3</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="CT22" s="4"/>
     </row>
     <row r="23" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="10">
         <v>4</v>
       </c>
@@ -4198,7 +4198,7 @@
       <c r="CT23" s="4"/>
     </row>
     <row r="24" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="10">
         <v>5</v>
       </c>
@@ -4366,7 +4366,7 @@
       <c r="CT24" s="4"/>
     </row>
     <row r="25" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="10">
         <v>6</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="CT25" s="4"/>
     </row>
     <row r="26" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="10">
         <v>7</v>
       </c>
@@ -4583,7 +4583,7 @@
       <c r="CT26" s="4"/>
     </row>
     <row r="27" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="10">
         <v>8</v>
       </c>
@@ -4653,7 +4653,7 @@
       <c r="CT27" s="4"/>
     </row>
     <row r="28" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="10">
         <v>9</v>
       </c>
@@ -4755,7 +4755,7 @@
       <c r="CT28" s="6"/>
     </row>
     <row r="29" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="10">
@@ -4949,7 +4949,7 @@
       <c r="CT29" s="2"/>
     </row>
     <row r="30" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="10">
         <v>2</v>
       </c>
@@ -5110,7 +5110,7 @@
       <c r="CT30" s="4"/>
     </row>
     <row r="31" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="10">
         <v>3</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="CT31" s="4"/>
     </row>
     <row r="32" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="10">
         <v>4</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="CT32" s="4"/>
     </row>
     <row r="33" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="10">
         <v>5</v>
       </c>
@@ -5597,7 +5597,7 @@
       <c r="CT33" s="4"/>
     </row>
     <row r="34" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="10">
         <v>6</v>
       </c>
@@ -5756,7 +5756,7 @@
       <c r="CT34" s="4"/>
     </row>
     <row r="35" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="10">
         <v>7</v>
       </c>
@@ -5889,7 +5889,7 @@
       <c r="CT35" s="4"/>
     </row>
     <row r="36" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="10">
         <v>8</v>
       </c>
@@ -5959,7 +5959,7 @@
       <c r="CT36" s="4"/>
     </row>
     <row r="37" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="10">
         <v>9</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="CT37" s="6"/>
     </row>
     <row r="38" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B38" s="10">
@@ -6243,7 +6243,7 @@
       <c r="CT38" s="2"/>
     </row>
     <row r="39" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="10">
         <v>2</v>
       </c>
@@ -6404,7 +6404,7 @@
       <c r="CT39" s="4"/>
     </row>
     <row r="40" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="10">
         <v>3</v>
       </c>
@@ -6572,7 +6572,7 @@
       <c r="CT40" s="4"/>
     </row>
     <row r="41" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="10">
         <v>4</v>
       </c>
@@ -6740,7 +6740,7 @@
       <c r="CT41" s="4"/>
     </row>
     <row r="42" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="10">
         <v>5</v>
       </c>
@@ -6908,7 +6908,7 @@
       <c r="CT42" s="4"/>
     </row>
     <row r="43" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="10">
         <v>6</v>
       </c>
@@ -7076,7 +7076,7 @@
       <c r="CT43" s="4"/>
     </row>
     <row r="44" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="10">
         <v>7</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="CT44" s="4"/>
     </row>
     <row r="45" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="10">
         <v>8</v>
       </c>
@@ -7244,7 +7244,7 @@
       <c r="CT45" s="4"/>
     </row>
     <row r="46" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="10">
         <v>9</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="CT46" s="6"/>
     </row>
     <row r="47" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="10">
@@ -7522,7 +7522,7 @@
       <c r="CT47" s="2"/>
     </row>
     <row r="48" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="10">
         <v>2</v>
       </c>
@@ -7676,7 +7676,7 @@
       <c r="CT48" s="4"/>
     </row>
     <row r="49" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="10">
         <v>3</v>
       </c>
@@ -7830,7 +7830,7 @@
       <c r="CT49" s="4"/>
     </row>
     <row r="50" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="10">
         <v>4</v>
       </c>
@@ -7984,7 +7984,7 @@
       <c r="CT50" s="4"/>
     </row>
     <row r="51" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="10">
         <v>5</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="CT51" s="4"/>
     </row>
     <row r="52" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="10">
         <v>6</v>
       </c>
@@ -8208,7 +8208,7 @@
       <c r="CT52" s="4"/>
     </row>
     <row r="53" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="10">
         <v>7</v>
       </c>
@@ -8278,7 +8278,7 @@
       <c r="CT53" s="4"/>
     </row>
     <row r="54" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="10">
         <v>8</v>
       </c>
@@ -8348,7 +8348,7 @@
       <c r="CT54" s="4"/>
     </row>
     <row r="55" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="10">
         <v>9</v>
       </c>
@@ -8418,15 +8418,9 @@
       <c r="BN55" s="5"/>
       <c r="BO55" s="8"/>
       <c r="BP55" s="6"/>
-      <c r="BQ55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="BR55" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="BS55" s="6">
-        <v>208</v>
-      </c>
+      <c r="BQ55" s="5"/>
+      <c r="BR55" s="8"/>
+      <c r="BS55" s="6"/>
       <c r="BT55" s="5"/>
       <c r="BU55" s="8"/>
       <c r="BV55" s="6"/>
@@ -8457,6 +8451,37 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BW1:BY1"/>
     <mergeCell ref="CO1:CQ1"/>
     <mergeCell ref="CR1:CT1"/>
     <mergeCell ref="BZ1:CB1"/>
@@ -8464,37 +8489,6 @@
     <mergeCell ref="CF1:CH1"/>
     <mergeCell ref="CI1:CK1"/>
     <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
